--- a/biology/Zoologie/Boulengerochromis/Boulengerochromis.xlsx
+++ b/biology/Zoologie/Boulengerochromis/Boulengerochromis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boulengerochromis microlepis est une espèce de poissons appartenant à la famille des Cichlidae. C'est un endémique du lac Tanganyika. Spécialisé dans la prédation, c'est le plus gros cichlidé de ce lac avec une taille maximale d'environ 80 cm[3], pour un poids de 4,5 kg[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boulengerochromis microlepis est une espèce de poissons appartenant à la famille des Cichlidae. C'est un endémique du lac Tanganyika. Spécialisé dans la prédation, c'est le plus gros cichlidé de ce lac avec une taille maximale d'environ 80 cm, pour un poids de 4,5 kg.
 C'est la seule espèce du genre Boulengerochromis (monotypique). 
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre Boulengerochromis commémore l'ichtyologiste George Albert Boulenger (1858-1937) qui a fait la première description de cette espèce sous le protonyme de Tilapia microlepis.
-Son nom spécifique, du grec ancien μικρός, mikros, « petit », et λεπίς, lepís, « écaille », fait probablement référence à la petitesse de ses écailles, au nombre de 80 à 90 le long de la ligne latérale[4].
+Son nom spécifique, du grec ancien μικρός, mikros, « petit », et λεπίς, lepís, « écaille », fait probablement référence à la petitesse de ses écailles, au nombre de 80 à 90 le long de la ligne latérale.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) George Albert Boulenger, « Second Contribution to the Ichthyology of Lake Tanganyika.-On the Fishes obtained by the Congo Free State Expedition under Lieut. Lemaire in 1898 », Transactions of the Zoological Society of London, vol. 15, no 4,‎ 7 juillet 2010, p. 87-96 (ISSN 0084-5620, DOI 10.1111/J.1096-3642.1899.TB00020.X)</t>
         </is>
